--- a/Youtube Data Analysis/Data Layer Monitor.xlsx
+++ b/Youtube Data Analysis/Data Layer Monitor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\angel\Desktop\DE PROJECTS\Professional-Portfolio\Youtube Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0204AF46-CD0B-45DF-8A68-76899C411D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3D143D-F8CD-4227-85DA-A9ABFB23362E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Data</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Solo test en estapa cleaned</t>
   </si>
 </sst>
 </file>
@@ -115,15 +112,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -408,7 +405,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,30 +416,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -454,7 +451,9 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -467,10 +466,10 @@
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
